--- a/项目开发周期表.xlsx
+++ b/项目开发周期表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>附件03：项目开发周期表</t>
   </si>
@@ -47,7 +47,7 @@
     <t>项目负责人</t>
   </si>
   <si>
-    <t>闫博艺</t>
+    <t>闫博艺，陈栎侃</t>
   </si>
   <si>
     <t>项目总计工时</t>
@@ -276,43 +276,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">里程碑：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最终项目评审</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>修改并完善项目，进行最后整改</t>
+  </si>
+  <si>
+    <t>里程碑：
+最终项目评审
 工作任务：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>项目答辩</t>
-    </r>
+项目答辩</t>
   </si>
 </sst>
 </file>
@@ -325,7 +295,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,21 +306,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1028,137 +983,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1175,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1196,22 +1151,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1230,10 +1182,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1584,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1699,36 +1651,38 @@
       <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45509</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>45510</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>45511</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>45512</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="E8" s="19">
+        <v>45513</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
       <c r="A9" s="14" t="s">
@@ -1743,26 +1697,30 @@
       <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" ht="120" customHeight="1" spans="1:7">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
